--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>ano</t>
   </si>
@@ -40,6 +40,12 @@
     <t>returning_rate</t>
   </si>
   <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +456,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>803</v>
+        <v>2236</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="E2">
-        <v>751</v>
+        <v>2127</v>
       </c>
       <c r="F2">
-        <v>5.797101449275362</v>
+        <v>10.83499005964215</v>
       </c>
       <c r="G2">
-        <v>93.52428393524283</v>
+        <v>95.12522361359571</v>
       </c>
       <c r="H2">
-        <v>6.47571606475716</v>
+        <v>4.874776386404293</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -473,22 +482,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1114</v>
+        <v>2829</v>
       </c>
       <c r="D3">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>2688</v>
       </c>
       <c r="F3">
-        <v>14.19676214196762</v>
+        <v>6.305903398926654</v>
       </c>
       <c r="G3">
-        <v>89.76660682226212</v>
+        <v>95.01590668080594</v>
       </c>
       <c r="H3">
-        <v>10.23339317773788</v>
+        <v>4.984093319194061</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -499,22 +508,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1494</v>
+        <v>2493</v>
       </c>
       <c r="D4">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E4">
-        <v>1332</v>
+        <v>2309</v>
       </c>
       <c r="F4">
-        <v>14.54219030520646</v>
+        <v>6.504065040650407</v>
       </c>
       <c r="G4">
-        <v>89.1566265060241</v>
+        <v>92.61933413557962</v>
       </c>
       <c r="H4">
-        <v>10.8433734939759</v>
+        <v>7.380665864420378</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -525,22 +534,100 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1876</v>
+        <v>2761</v>
       </c>
       <c r="D5">
-        <v>194</v>
+        <v>321</v>
       </c>
       <c r="E5">
-        <v>1682</v>
+        <v>2440</v>
       </c>
       <c r="F5">
-        <v>12.98527443105756</v>
+        <v>12.87605294825511</v>
       </c>
       <c r="G5">
-        <v>89.6588486140725</v>
+        <v>88.3737776168055</v>
       </c>
       <c r="H5">
-        <v>10.34115138592751</v>
+        <v>11.62622238319449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2740</v>
+      </c>
+      <c r="D6">
+        <v>323</v>
+      </c>
+      <c r="E6">
+        <v>2417</v>
+      </c>
+      <c r="F6">
+        <v>11.69865990583122</v>
+      </c>
+      <c r="G6">
+        <v>88.21167883211679</v>
+      </c>
+      <c r="H6">
+        <v>11.78832116788321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2445</v>
+      </c>
+      <c r="D7">
+        <v>304</v>
+      </c>
+      <c r="E7">
+        <v>2141</v>
+      </c>
+      <c r="F7">
+        <v>11.09489051094891</v>
+      </c>
+      <c r="G7">
+        <v>87.56646216768917</v>
+      </c>
+      <c r="H7">
+        <v>12.43353783231084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>688</v>
+      </c>
+      <c r="D8">
+        <v>130</v>
+      </c>
+      <c r="E8">
+        <v>558</v>
+      </c>
+      <c r="F8">
+        <v>5.316973415132924</v>
+      </c>
+      <c r="G8">
+        <v>81.1046511627907</v>
+      </c>
+      <c r="H8">
+        <v>18.8953488372093</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -456,22 +456,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2236</v>
+        <v>2213</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="F2">
-        <v>10.83499005964215</v>
+        <v>10.71789686552073</v>
       </c>
       <c r="G2">
-        <v>95.12522361359571</v>
+        <v>95.21012200632626</v>
       </c>
       <c r="H2">
-        <v>4.874776386404293</v>
+        <v>4.789877993673746</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,22 +482,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2829</v>
+        <v>2820</v>
       </c>
       <c r="D3">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E3">
-        <v>2688</v>
+        <v>2683</v>
       </c>
       <c r="F3">
-        <v>6.305903398926654</v>
+        <v>6.190691369182106</v>
       </c>
       <c r="G3">
-        <v>95.01590668080594</v>
+        <v>95.1418439716312</v>
       </c>
       <c r="H3">
-        <v>4.984093319194061</v>
+        <v>4.858156028368795</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,22 +508,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>2493</v>
+        <v>2461</v>
       </c>
       <c r="D4">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E4">
-        <v>2309</v>
+        <v>2283</v>
       </c>
       <c r="F4">
-        <v>6.504065040650407</v>
+        <v>6.312056737588652</v>
       </c>
       <c r="G4">
-        <v>92.61933413557962</v>
+        <v>92.76716781796019</v>
       </c>
       <c r="H4">
-        <v>7.380665864420378</v>
+        <v>7.232832182039821</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,22 +534,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>2761</v>
+        <v>2749</v>
       </c>
       <c r="D5">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E5">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="F5">
-        <v>12.87605294825511</v>
+        <v>12.75904104022755</v>
       </c>
       <c r="G5">
-        <v>88.3737776168055</v>
+        <v>88.57766460531103</v>
       </c>
       <c r="H5">
-        <v>11.62622238319449</v>
+        <v>11.42233539468898</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,22 +560,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>2740</v>
+        <v>2734</v>
       </c>
       <c r="D6">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E6">
         <v>2417</v>
       </c>
       <c r="F6">
-        <v>11.69865990583122</v>
+        <v>11.53146598763187</v>
       </c>
       <c r="G6">
-        <v>88.21167883211679</v>
+        <v>88.40526700804682</v>
       </c>
       <c r="H6">
-        <v>11.78832116788321</v>
+        <v>11.59473299195318</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,22 +586,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>2445</v>
+        <v>2438</v>
       </c>
       <c r="D7">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E7">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="F7">
-        <v>11.09489051094891</v>
+        <v>11.00950987564009</v>
       </c>
       <c r="G7">
-        <v>87.56646216768917</v>
+        <v>87.6538146021329</v>
       </c>
       <c r="H7">
-        <v>12.43353783231084</v>
+        <v>12.3461853978671</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>688</v>
+        <v>761</v>
       </c>
       <c r="D8">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E8">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="F8">
-        <v>5.316973415132924</v>
+        <v>5.619360131255127</v>
       </c>
       <c r="G8">
-        <v>81.1046511627907</v>
+        <v>81.99737187910644</v>
       </c>
       <c r="H8">
-        <v>18.8953488372093</v>
+        <v>18.00262812089356</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>761</v>
+        <v>805</v>
       </c>
       <c r="D8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E8">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="F8">
-        <v>5.619360131255127</v>
+        <v>5.783429040196883</v>
       </c>
       <c r="G8">
-        <v>81.99737187910644</v>
+        <v>82.48447204968944</v>
       </c>
       <c r="H8">
-        <v>18.00262812089356</v>
+        <v>17.51552795031056</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="D8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E8">
-        <v>664</v>
+        <v>702</v>
       </c>
       <c r="F8">
-        <v>5.783429040196883</v>
+        <v>5.947497949138638</v>
       </c>
       <c r="G8">
-        <v>82.48447204968944</v>
+        <v>82.88075560802834</v>
       </c>
       <c r="H8">
-        <v>17.51552795031056</v>
+        <v>17.11924439197166</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="D8">
         <v>145</v>
       </c>
       <c r="E8">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="F8">
         <v>5.947497949138638</v>
       </c>
       <c r="G8">
-        <v>82.88075560802834</v>
+        <v>83.00117233294256</v>
       </c>
       <c r="H8">
-        <v>17.11924439197166</v>
+        <v>16.99882766705744</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="D8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="F8">
-        <v>5.947497949138638</v>
+        <v>5.988515176374077</v>
       </c>
       <c r="G8">
-        <v>83.00117233294256</v>
+        <v>83.17972350230414</v>
       </c>
       <c r="H8">
-        <v>16.99882766705744</v>
+        <v>16.82027649769585</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="D8">
         <v>146</v>
       </c>
       <c r="E8">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="F8">
         <v>5.988515176374077</v>
       </c>
       <c r="G8">
-        <v>83.17972350230414</v>
+        <v>83.29519450800915</v>
       </c>
       <c r="H8">
-        <v>16.82027649769585</v>
+        <v>16.70480549199085</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>874</v>
+        <v>911</v>
       </c>
       <c r="D8">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E8">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="F8">
-        <v>5.988515176374077</v>
+        <v>6.193601312551271</v>
       </c>
       <c r="G8">
-        <v>83.29519450800915</v>
+        <v>83.42480790340285</v>
       </c>
       <c r="H8">
-        <v>16.70480549199085</v>
+        <v>16.57519209659715</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="D8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E8">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F8">
-        <v>6.193601312551271</v>
+        <v>6.316652994257588</v>
       </c>
       <c r="G8">
-        <v>83.42480790340285</v>
+        <v>83.22440087145969</v>
       </c>
       <c r="H8">
-        <v>16.57519209659715</v>
+        <v>16.77559912854031</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>918</v>
+        <v>934</v>
       </c>
       <c r="D8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E8">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="F8">
-        <v>6.316652994257588</v>
+        <v>6.357670221493026</v>
       </c>
       <c r="G8">
-        <v>83.22440087145969</v>
+        <v>83.40471092077088</v>
       </c>
       <c r="H8">
-        <v>16.77559912854031</v>
+        <v>16.59528907922912</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="F8">
-        <v>6.357670221493026</v>
+        <v>6.398687448728466</v>
       </c>
       <c r="G8">
-        <v>83.40471092077088</v>
+        <v>83.42189160467588</v>
       </c>
       <c r="H8">
-        <v>16.59528907922912</v>
+        <v>16.57810839532412</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>941</v>
+        <v>954</v>
       </c>
       <c r="D8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E8">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="F8">
-        <v>6.398687448728466</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="G8">
-        <v>83.42189160467588</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="H8">
-        <v>16.57810839532412</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="D8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E8">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F8">
-        <v>6.521739130434782</v>
+        <v>6.60377358490566</v>
       </c>
       <c r="G8">
-        <v>83.33333333333334</v>
+        <v>83.21167883211679</v>
       </c>
       <c r="H8">
-        <v>16.66666666666666</v>
+        <v>16.78832116788321</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="D8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E8">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="F8">
-        <v>6.60377358490566</v>
+        <v>6.685808039376538</v>
       </c>
       <c r="G8">
-        <v>83.21167883211679</v>
+        <v>83.12629399585921</v>
       </c>
       <c r="H8">
-        <v>16.78832116788321</v>
+        <v>16.87370600414079</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="D8">
         <v>163</v>
       </c>
       <c r="E8">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="F8">
         <v>6.685808039376538</v>
       </c>
       <c r="G8">
-        <v>83.12629399585921</v>
+        <v>83.1958762886598</v>
       </c>
       <c r="H8">
-        <v>16.87370600414079</v>
+        <v>16.80412371134021</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="D8">
         <v>163</v>
       </c>
       <c r="E8">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="F8">
         <v>6.685808039376538</v>
       </c>
       <c r="G8">
-        <v>83.1958762886598</v>
+        <v>83.31627430910952</v>
       </c>
       <c r="H8">
-        <v>16.80412371134021</v>
+        <v>16.68372569089048</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="D8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E8">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="F8">
-        <v>6.685808039376538</v>
+        <v>6.726825266611977</v>
       </c>
       <c r="G8">
-        <v>83.31627430910952</v>
+        <v>83.46774193548387</v>
       </c>
       <c r="H8">
-        <v>16.68372569089048</v>
+        <v>16.53225806451613</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="D8">
         <v>164</v>
       </c>
       <c r="E8">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="F8">
         <v>6.726825266611977</v>
       </c>
       <c r="G8">
-        <v>83.46774193548387</v>
+        <v>83.55065195586761</v>
       </c>
       <c r="H8">
-        <v>16.53225806451613</v>
+        <v>16.4493480441324</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="D8">
         <v>164</v>
       </c>
       <c r="E8">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="F8">
         <v>6.726825266611977</v>
       </c>
       <c r="G8">
-        <v>83.55065195586761</v>
+        <v>83.63273453093812</v>
       </c>
       <c r="H8">
-        <v>16.4493480441324</v>
+        <v>16.36726546906188</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E8">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="F8">
-        <v>6.726825266611977</v>
+        <v>6.767842493847416</v>
       </c>
       <c r="G8">
-        <v>83.63273453093812</v>
+        <v>83.64717542120911</v>
       </c>
       <c r="H8">
-        <v>16.36726546906188</v>
+        <v>16.35282457879088</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="D8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="F8">
-        <v>6.767842493847416</v>
+        <v>6.808859721082855</v>
       </c>
       <c r="G8">
-        <v>83.64717542120911</v>
+        <v>83.67748279252703</v>
       </c>
       <c r="H8">
-        <v>16.35282457879088</v>
+        <v>16.32251720747296</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="D8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E8">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="F8">
-        <v>6.808859721082855</v>
+        <v>6.890894175553733</v>
       </c>
       <c r="G8">
-        <v>83.67748279252703</v>
+        <v>83.64167478091528</v>
       </c>
       <c r="H8">
-        <v>16.32251720747296</v>
+        <v>16.35832521908471</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E8">
         <v>859</v>
       </c>
       <c r="F8">
-        <v>6.890894175553733</v>
+        <v>6.931911402789172</v>
       </c>
       <c r="G8">
-        <v>83.64167478091528</v>
+        <v>83.56031128404669</v>
       </c>
       <c r="H8">
-        <v>16.35832521908471</v>
+        <v>16.43968871595331</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E8">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="F8">
-        <v>6.931911402789172</v>
+        <v>6.972928630024611</v>
       </c>
       <c r="G8">
-        <v>83.56031128404669</v>
+        <v>83.5430784123911</v>
       </c>
       <c r="H8">
-        <v>16.43968871595331</v>
+        <v>16.45692158760891</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="D8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E8">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F8">
-        <v>6.972928630024611</v>
+        <v>7.054963084495489</v>
       </c>
       <c r="G8">
-        <v>83.5430784123911</v>
+        <v>83.41369334619093</v>
       </c>
       <c r="H8">
-        <v>16.45692158760891</v>
+        <v>16.58630665380906</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="D8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E8">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="F8">
-        <v>7.054963084495489</v>
+        <v>7.136997538966367</v>
       </c>
       <c r="G8">
-        <v>83.41369334619093</v>
+        <v>83.3810888252149</v>
       </c>
       <c r="H8">
-        <v>16.58630665380906</v>
+        <v>16.6189111747851</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="D8">
         <v>174</v>
       </c>
       <c r="E8">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="F8">
         <v>7.136997538966367</v>
       </c>
       <c r="G8">
-        <v>83.3810888252149</v>
+        <v>83.47578347578347</v>
       </c>
       <c r="H8">
-        <v>16.6189111747851</v>
+        <v>16.52421652421652</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="D8">
         <v>174</v>
       </c>
       <c r="E8">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="F8">
         <v>7.136997538966367</v>
       </c>
       <c r="G8">
-        <v>83.47578347578347</v>
+        <v>83.52272727272727</v>
       </c>
       <c r="H8">
-        <v>16.52421652421652</v>
+        <v>16.47727272727273</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E8">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="F8">
-        <v>7.136997538966367</v>
+        <v>7.178014766201805</v>
       </c>
       <c r="G8">
-        <v>83.52272727272727</v>
+        <v>83.61423220973782</v>
       </c>
       <c r="H8">
-        <v>16.47727272727273</v>
+        <v>16.38576779026217</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="D8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E8">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="F8">
-        <v>7.178014766201805</v>
+        <v>7.219031993437245</v>
       </c>
       <c r="G8">
-        <v>83.61423220973782</v>
+        <v>83.64312267657994</v>
       </c>
       <c r="H8">
-        <v>16.38576779026217</v>
+        <v>16.35687732342008</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="D8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E8">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="F8">
-        <v>7.219031993437245</v>
+        <v>7.260049220672682</v>
       </c>
       <c r="G8">
-        <v>83.64312267657994</v>
+        <v>83.65650969529086</v>
       </c>
       <c r="H8">
-        <v>16.35687732342008</v>
+        <v>16.34349030470914</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1083</v>
+        <v>1096</v>
       </c>
       <c r="D8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E8">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="F8">
-        <v>7.260049220672682</v>
+        <v>7.342083675143559</v>
       </c>
       <c r="G8">
-        <v>83.65650969529086</v>
+        <v>83.66788321167883</v>
       </c>
       <c r="H8">
-        <v>16.34349030470914</v>
+        <v>16.33211678832117</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="D8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E8">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="F8">
-        <v>7.342083675143559</v>
+        <v>7.383100902378999</v>
       </c>
       <c r="G8">
-        <v>83.66788321167883</v>
+        <v>83.75451263537906</v>
       </c>
       <c r="H8">
-        <v>16.33211678832117</v>
+        <v>16.24548736462094</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="D8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E8">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="F8">
-        <v>7.383100902378999</v>
+        <v>7.465135356849877</v>
       </c>
       <c r="G8">
-        <v>83.75451263537906</v>
+        <v>83.69175627240143</v>
       </c>
       <c r="H8">
-        <v>16.24548736462094</v>
+        <v>16.30824372759857</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1116</v>
+        <v>1125</v>
       </c>
       <c r="D8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E8">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="F8">
-        <v>7.465135356849877</v>
+        <v>7.588187038556193</v>
       </c>
       <c r="G8">
-        <v>83.69175627240143</v>
+        <v>83.55555555555556</v>
       </c>
       <c r="H8">
-        <v>16.30824372759857</v>
+        <v>16.44444444444445</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="D8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E8">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="F8">
-        <v>7.588187038556193</v>
+        <v>7.670221493027071</v>
       </c>
       <c r="G8">
-        <v>83.55555555555556</v>
+        <v>83.49514563106796</v>
       </c>
       <c r="H8">
-        <v>16.44444444444445</v>
+        <v>16.50485436893204</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1133</v>
+        <v>1145</v>
       </c>
       <c r="D8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E8">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="F8">
-        <v>7.670221493027071</v>
+        <v>7.752255947497949</v>
       </c>
       <c r="G8">
-        <v>83.49514563106796</v>
+        <v>83.49344978165939</v>
       </c>
       <c r="H8">
-        <v>16.50485436893204</v>
+        <v>16.50655021834061</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1145</v>
+        <v>1160</v>
       </c>
       <c r="D8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E8">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="F8">
-        <v>7.752255947497949</v>
+        <v>7.875307629204266</v>
       </c>
       <c r="G8">
-        <v>83.49344978165939</v>
+        <v>83.44827586206897</v>
       </c>
       <c r="H8">
-        <v>16.50655021834061</v>
+        <v>16.55172413793104</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="D8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E8">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="F8">
-        <v>7.875307629204266</v>
+        <v>7.916324856439704</v>
       </c>
       <c r="G8">
-        <v>83.44827586206897</v>
+        <v>83.46186803770351</v>
       </c>
       <c r="H8">
-        <v>16.55172413793104</v>
+        <v>16.53813196229649</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="D8">
         <v>193</v>
       </c>
       <c r="E8">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="F8">
         <v>7.916324856439704</v>
       </c>
       <c r="G8">
-        <v>83.46186803770351</v>
+        <v>83.51836037574722</v>
       </c>
       <c r="H8">
-        <v>16.53813196229649</v>
+        <v>16.48163962425278</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="D8">
         <v>193</v>
       </c>
       <c r="E8">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="F8">
         <v>7.916324856439704</v>
       </c>
       <c r="G8">
-        <v>83.51836037574722</v>
+        <v>83.61629881154499</v>
       </c>
       <c r="H8">
-        <v>16.48163962425278</v>
+        <v>16.38370118845501</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="D8">
         <v>193</v>
       </c>
       <c r="E8">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="F8">
         <v>7.916324856439704</v>
       </c>
       <c r="G8">
-        <v>83.61629881154499</v>
+        <v>83.65791701947502</v>
       </c>
       <c r="H8">
-        <v>16.38370118845501</v>
+        <v>16.34208298052498</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1181</v>
+        <v>1200</v>
       </c>
       <c r="D8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E8">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="F8">
-        <v>7.916324856439704</v>
+        <v>7.998359310910582</v>
       </c>
       <c r="G8">
-        <v>83.65791701947502</v>
+        <v>83.75</v>
       </c>
       <c r="H8">
-        <v>16.34208298052498</v>
+        <v>16.25</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="D8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E8">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="F8">
-        <v>7.998359310910582</v>
+        <v>8.08039376538146</v>
       </c>
       <c r="G8">
-        <v>83.75</v>
+        <v>83.65145228215768</v>
       </c>
       <c r="H8">
-        <v>16.25</v>
+        <v>16.34854771784232</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1205</v>
+        <v>1214</v>
       </c>
       <c r="D8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="F8">
-        <v>8.08039376538146</v>
+        <v>8.1214109926169</v>
       </c>
       <c r="G8">
-        <v>83.65145228215768</v>
+        <v>83.69028006589787</v>
       </c>
       <c r="H8">
-        <v>16.34854771784232</v>
+        <v>16.30971993410214</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="D8">
         <v>198</v>
       </c>
       <c r="E8">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="F8">
         <v>8.1214109926169</v>
       </c>
       <c r="G8">
-        <v>83.69028006589787</v>
+        <v>83.7571780147662</v>
       </c>
       <c r="H8">
-        <v>16.30971993410214</v>
+        <v>16.2428219852338</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="D8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E8">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="F8">
-        <v>8.1214109926169</v>
+        <v>8.162428219852339</v>
       </c>
       <c r="G8">
-        <v>83.7571780147662</v>
+        <v>83.75510204081633</v>
       </c>
       <c r="H8">
-        <v>16.2428219852338</v>
+        <v>16.24489795918367</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1225</v>
+        <v>1235</v>
       </c>
       <c r="D8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E8">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="F8">
-        <v>8.162428219852339</v>
+        <v>8.244462674323216</v>
       </c>
       <c r="G8">
-        <v>83.75510204081633</v>
+        <v>83.7246963562753</v>
       </c>
       <c r="H8">
-        <v>16.24489795918367</v>
+        <v>16.27530364372469</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="D8">
         <v>201</v>
       </c>
       <c r="E8">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="F8">
         <v>8.244462674323216</v>
       </c>
       <c r="G8">
-        <v>83.7246963562753</v>
+        <v>83.80338436744562</v>
       </c>
       <c r="H8">
-        <v>16.27530364372469</v>
+        <v>16.19661563255439</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1241</v>
+        <v>1248</v>
       </c>
       <c r="D8">
         <v>201</v>
       </c>
       <c r="E8">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="F8">
         <v>8.244462674323216</v>
       </c>
       <c r="G8">
-        <v>83.80338436744562</v>
+        <v>83.89423076923077</v>
       </c>
       <c r="H8">
-        <v>16.19661563255439</v>
+        <v>16.10576923076923</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="D8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E8">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="F8">
-        <v>8.244462674323216</v>
+        <v>8.285479901558656</v>
       </c>
       <c r="G8">
-        <v>83.89423076923077</v>
+        <v>83.89154704944178</v>
       </c>
       <c r="H8">
-        <v>16.10576923076923</v>
+        <v>16.10845295055821</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="D8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E8">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="F8">
-        <v>8.285479901558656</v>
+        <v>8.367514356029531</v>
       </c>
       <c r="G8">
-        <v>83.89154704944178</v>
+        <v>83.80952380952381</v>
       </c>
       <c r="H8">
-        <v>16.10845295055821</v>
+        <v>16.19047619047619</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1260</v>
+        <v>1274</v>
       </c>
       <c r="D8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E8">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="F8">
-        <v>8.367514356029531</v>
+        <v>8.44954881050041</v>
       </c>
       <c r="G8">
-        <v>83.80952380952381</v>
+        <v>83.83045525902669</v>
       </c>
       <c r="H8">
-        <v>16.19047619047619</v>
+        <v>16.16954474097331</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1274</v>
+        <v>1287</v>
       </c>
       <c r="D8">
         <v>206</v>
       </c>
       <c r="E8">
-        <v>1068</v>
+        <v>1081</v>
       </c>
       <c r="F8">
         <v>8.44954881050041</v>
       </c>
       <c r="G8">
-        <v>83.83045525902669</v>
+        <v>83.99378399378399</v>
       </c>
       <c r="H8">
-        <v>16.16954474097331</v>
+        <v>16.00621600621601</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="D8">
         <v>206</v>
       </c>
       <c r="E8">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="F8">
         <v>8.44954881050041</v>
       </c>
       <c r="G8">
-        <v>83.99378399378399</v>
+        <v>84.04337722695585</v>
       </c>
       <c r="H8">
-        <v>16.00621600621601</v>
+        <v>15.95662277304415</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="D8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E8">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="F8">
-        <v>8.44954881050041</v>
+        <v>8.490566037735849</v>
       </c>
       <c r="G8">
-        <v>84.04337722695585</v>
+        <v>84.06466512702079</v>
       </c>
       <c r="H8">
-        <v>15.95662277304415</v>
+        <v>15.93533487297922</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="D8">
         <v>207</v>
       </c>
       <c r="E8">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="F8">
         <v>8.490566037735849</v>
       </c>
       <c r="G8">
-        <v>84.06466512702079</v>
+        <v>84.13793103448276</v>
       </c>
       <c r="H8">
-        <v>15.93533487297922</v>
+        <v>15.86206896551724</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1305</v>
+        <v>1318</v>
       </c>
       <c r="D8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E8">
-        <v>1098</v>
+        <v>1109</v>
       </c>
       <c r="F8">
-        <v>8.490566037735849</v>
+        <v>8.572600492206726</v>
       </c>
       <c r="G8">
-        <v>84.13793103448276</v>
+        <v>84.14264036418815</v>
       </c>
       <c r="H8">
-        <v>15.86206896551724</v>
+        <v>15.85735963581184</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="D8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E8">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="F8">
-        <v>8.572600492206726</v>
+        <v>8.613617719442166</v>
       </c>
       <c r="G8">
-        <v>84.14264036418815</v>
+        <v>84.13897280966768</v>
       </c>
       <c r="H8">
-        <v>15.85735963581184</v>
+        <v>15.86102719033233</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="D8">
         <v>210</v>
       </c>
       <c r="E8">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="F8">
         <v>8.613617719442166</v>
       </c>
       <c r="G8">
-        <v>84.13897280966768</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H8">
-        <v>15.86102719033233</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1330</v>
+        <v>1337</v>
       </c>
       <c r="D8">
         <v>210</v>
       </c>
       <c r="E8">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="F8">
         <v>8.613617719442166</v>
       </c>
       <c r="G8">
-        <v>84.21052631578947</v>
+        <v>84.29319371727748</v>
       </c>
       <c r="H8">
-        <v>15.78947368421053</v>
+        <v>15.70680628272251</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1337</v>
+        <v>1346</v>
       </c>
       <c r="D8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E8">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="F8">
-        <v>8.613617719442166</v>
+        <v>8.654634946677604</v>
       </c>
       <c r="G8">
-        <v>84.29319371727748</v>
+        <v>84.32392273402675</v>
       </c>
       <c r="H8">
-        <v>15.70680628272251</v>
+        <v>15.67607726597325</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="D8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E8">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="F8">
-        <v>8.654634946677604</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="G8">
-        <v>84.32392273402675</v>
+        <v>84.43465491923642</v>
       </c>
       <c r="H8">
-        <v>15.67607726597325</v>
+        <v>15.56534508076358</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1362</v>
+        <v>1370</v>
       </c>
       <c r="D8">
         <v>212</v>
       </c>
       <c r="E8">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="F8">
         <v>8.695652173913043</v>
       </c>
       <c r="G8">
-        <v>84.43465491923642</v>
+        <v>84.52554744525548</v>
       </c>
       <c r="H8">
-        <v>15.56534508076358</v>
+        <v>15.47445255474453</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="D8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E8">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="F8">
-        <v>8.695652173913043</v>
+        <v>8.736669401148482</v>
       </c>
       <c r="G8">
-        <v>84.52554744525548</v>
+        <v>84.50909090909092</v>
       </c>
       <c r="H8">
-        <v>15.47445255474453</v>
+        <v>15.49090909090909</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="D8">
         <v>213</v>
       </c>
       <c r="E8">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="F8">
         <v>8.736669401148482</v>
       </c>
       <c r="G8">
-        <v>84.50909090909092</v>
+        <v>84.55402465554749</v>
       </c>
       <c r="H8">
-        <v>15.49090909090909</v>
+        <v>15.4459753444525</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1379</v>
+        <v>1406</v>
       </c>
       <c r="D8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E8">
-        <v>1166</v>
+        <v>1192</v>
       </c>
       <c r="F8">
-        <v>8.736669401148482</v>
+        <v>8.777686628383922</v>
       </c>
       <c r="G8">
-        <v>84.55402465554749</v>
+        <v>84.77951635846372</v>
       </c>
       <c r="H8">
-        <v>15.4459753444525</v>
+        <v>15.22048364153627</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1406</v>
+        <v>1419</v>
       </c>
       <c r="D8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E8">
-        <v>1192</v>
+        <v>1203</v>
       </c>
       <c r="F8">
-        <v>8.777686628383922</v>
+        <v>8.859721082854799</v>
       </c>
       <c r="G8">
-        <v>84.77951635846372</v>
+        <v>84.77801268498943</v>
       </c>
       <c r="H8">
-        <v>15.22048364153627</v>
+        <v>15.22198731501057</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1419</v>
+        <v>1436</v>
       </c>
       <c r="D8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E8">
-        <v>1203</v>
+        <v>1217</v>
       </c>
       <c r="F8">
-        <v>8.859721082854799</v>
+        <v>8.982772764561116</v>
       </c>
       <c r="G8">
-        <v>84.77801268498943</v>
+        <v>84.74930362116991</v>
       </c>
       <c r="H8">
-        <v>15.22198731501057</v>
+        <v>15.25069637883008</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="D8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E8">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="F8">
-        <v>8.982772764561116</v>
+        <v>9.064807219031994</v>
       </c>
       <c r="G8">
-        <v>84.74930362116991</v>
+        <v>84.66342817487855</v>
       </c>
       <c r="H8">
-        <v>15.25069637883008</v>
+        <v>15.33657182512144</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1441</v>
+        <v>1453</v>
       </c>
       <c r="D8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E8">
-        <v>1220</v>
+        <v>1227</v>
       </c>
       <c r="F8">
-        <v>9.064807219031994</v>
+        <v>9.269893355209188</v>
       </c>
       <c r="G8">
-        <v>84.66342817487855</v>
+        <v>84.44597384721266</v>
       </c>
       <c r="H8">
-        <v>15.33657182512144</v>
+        <v>15.55402615278734</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="D8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E8">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="F8">
-        <v>9.269893355209188</v>
+        <v>9.310910582444627</v>
       </c>
       <c r="G8">
-        <v>84.44597384721266</v>
+        <v>84.40934065934066</v>
       </c>
       <c r="H8">
-        <v>15.55402615278734</v>
+        <v>15.59065934065934</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="D8">
         <v>227</v>
       </c>
       <c r="E8">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="F8">
         <v>9.310910582444627</v>
       </c>
       <c r="G8">
-        <v>84.40934065934066</v>
+        <v>84.46269678302532</v>
       </c>
       <c r="H8">
-        <v>15.59065934065934</v>
+        <v>15.53730321697467</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_anual.xlsx
@@ -612,22 +612,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1461</v>
+        <v>1480</v>
       </c>
       <c r="D8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E8">
-        <v>1234</v>
+        <v>1252</v>
       </c>
       <c r="F8">
-        <v>9.310910582444627</v>
+        <v>9.351927809680067</v>
       </c>
       <c r="G8">
-        <v>84.46269678302532</v>
+        <v>84.5945945945946</v>
       </c>
       <c r="H8">
-        <v>15.53730321697467</v>
+        <v>15.40540540540541</v>
       </c>
     </row>
   </sheetData>
